--- a/data/Getting_Professions.xlsx
+++ b/data/Getting_Professions.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierlim/PycharmProjects/TacklingSingaporeEmigration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1582853E-E294-C243-A7B8-A704FE0242C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A829AB9-C9F7-E34B-ABC0-FBAA5350DD75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23560" xr2:uid="{D00752C6-4CFF-9045-B170-DC7E0364D112}"/>
+    <workbookView xWindow="40" yWindow="440" windowWidth="38400" windowHeight="23560" xr2:uid="{D00752C6-4CFF-9045-B170-DC7E0364D112}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$60</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$60</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$G$2:$G$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
   <si>
     <t>Job Category</t>
   </si>
@@ -59,11 +58,17 @@
   <si>
     <t>National Service</t>
   </si>
+  <si>
+    <t>Percentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -116,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,143 +532,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24EEC02-B137-D046-BB62-28EC9E3E8E6A}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="E2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="4">
+        <f>(H2/H9)*100</f>
+        <v>56.756756756756758</v>
+      </c>
+      <c r="H2">
         <f>COUNTIF(Table1[Job Category], "Professionals")</f>
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="4">
+        <f>(H3/H9)*100</f>
+        <v>21.621621621621621</v>
+      </c>
+      <c r="H3">
         <f>COUNTIF(Table1[Job Category], "Managers")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(H4/H9)*100</f>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(Table1[Job Category], "Student")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f>(H5/H9)*100</f>
+        <v>10.810810810810811</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF(Table1[Job Category], "Service and Sales Workers")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(H6/H9)*100</f>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF(Table1[Job Category], "Craft and related Trade Workers")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <f>(H7/H9)*100</f>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF(Table1[Job Category], "Housewife")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(H8/H9)*100</f>
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF(Table1[Job Category], "National Service")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>SUM(H2:H8)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4">
+        <f>(H13/H9)*100</f>
+        <v>59.45945945945946</v>
+      </c>
+      <c r="H13">
         <f>COUNTIF(Table1[Job Category], "Not Specified")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f>COUNTIF(Table1[Job Category], "Student")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <f>COUNTIF(Table1[Job Category], "Service and Sales Workers")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <f>COUNTIF(Table1[Job Category], "Craft and related Trade Workers")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f>COUNTIF(Table1[Job Category], "Housewife")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -889,6 +942,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
